--- a/ScrumDoku/Sprint_Backlog_1.xlsx
+++ b/ScrumDoku/Sprint_Backlog_1.xlsx
@@ -4,17 +4,18 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
+    <sheet name="1" sheetId="1" r:id="rId1"/>
+    <sheet name="2" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="27">
   <si>
     <t>StoryID</t>
   </si>
@@ -40,9 +41,6 @@
     <t>aamato</t>
   </si>
   <si>
-    <t>in Bearbeitung</t>
-  </si>
-  <si>
     <t>Hinweise konstant auf Spielfeld anzeigen</t>
   </si>
   <si>
@@ -77,6 +75,27 @@
   </si>
   <si>
     <t>aamato eyesil</t>
+  </si>
+  <si>
+    <t>Bimaru: Sprint Backlog 2</t>
+  </si>
+  <si>
+    <t>Der Spieler kann jederzeit seine Lösung  überprüfen lassen.</t>
+  </si>
+  <si>
+    <t>Der Spieler wählt vorgegebene Spieledateien aus, um das Spiel zu starten.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Der Entwickler kann Spiele in XML-Dateien definieren. </t>
+  </si>
+  <si>
+    <t>Einige Spieldateien in XML erstellen</t>
+  </si>
+  <si>
+    <t>Scrum Master: Remo Koller</t>
+  </si>
+  <si>
+    <t>Der Spieler sieht welche Schiffe zur Verfügung stehen und welche davon schon platziert wurden.</t>
   </si>
 </sst>
 </file>
@@ -199,7 +218,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -237,6 +256,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -256,9 +278,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Larissa">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Larissa">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -296,7 +318,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Larissa">
       <a:majorFont>
         <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -368,7 +390,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Larissa">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -544,8 +566,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -558,7 +580,7 @@
   <sheetData>
     <row r="1" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A1" s="10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B1" s="10"/>
       <c r="C1" s="8"/>
@@ -594,13 +616,13 @@
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="6"/>
       <c r="B5" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C5" s="9" t="s">
         <v>7</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -625,34 +647,34 @@
         <v>6</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="6"/>
       <c r="B9" s="7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C9" s="9" t="s">
         <v>7</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="6"/>
       <c r="B10" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C10" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" s="6" t="s">
         <v>18</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -666,7 +688,7 @@
         <v>2</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C12" s="12"/>
       <c r="D12" s="13"/>
@@ -674,13 +696,13 @@
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="6"/>
       <c r="B13" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C13" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D13" s="6" t="s">
         <v>18</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -694,7 +716,7 @@
         <v>4</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C15" s="12"/>
       <c r="D15" s="13"/>
@@ -702,25 +724,25 @@
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="6"/>
       <c r="B16" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C16" s="9" t="s">
         <v>7</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="6"/>
       <c r="B17" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C17" s="9" t="s">
         <v>7</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -733,4 +755,166 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="76.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+      <c r="A1" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="10"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="1"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B2" s="2"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="5">
+        <v>5</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="12"/>
+      <c r="D4" s="13"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="6"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="6"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="6"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="6"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="5">
+        <v>7</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="12"/>
+      <c r="D7" s="13"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="6"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="6"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="6"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="6"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="6"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="6"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="6"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="6"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="5">
+        <v>2</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" s="12"/>
+      <c r="D12" s="13"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="6"/>
+      <c r="B13" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" s="9"/>
+      <c r="D13" s="6"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="6"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="6"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="5">
+        <v>6</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" s="12"/>
+      <c r="D15" s="13"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="6"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="6"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="6"/>
+      <c r="B17" s="7"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="6"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="B19" s="14"/>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="A19:B19"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/ScrumDoku/Sprint_Backlog_1.xlsx
+++ b/ScrumDoku/Sprint_Backlog_1.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="1" r:id="rId1"/>
     <sheet name="2" sheetId="3" r:id="rId2"/>
+    <sheet name="3" sheetId="5" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="34">
   <si>
     <t>StoryID</t>
   </si>
@@ -96,13 +97,34 @@
   </si>
   <si>
     <t>Der Spieler sieht welche Schiffe zur Verfügung stehen und welche davon schon platziert wurden.</t>
+  </si>
+  <si>
+    <t>Scrum Master: Smelt Alexander</t>
+  </si>
+  <si>
+    <t>Der Spieler kann mitten im Spielverlauf die Lösung anzeigen lassen.</t>
+  </si>
+  <si>
+    <t>Wird ein Schiffsteil definiert platziert (von Wasser umgeben, …) wird das entsprechende, korrekte Schiffsteil angezeigt.</t>
+  </si>
+  <si>
+    <t>Der Benutzer kann die verschiedenen Funktionen in einer Toolbar auslösen.</t>
+  </si>
+  <si>
+    <t>Csolis</t>
+  </si>
+  <si>
+    <t>Remo, Alex</t>
+  </si>
+  <si>
+    <t>Remo, Alex, Eyesil</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -278,7 +300,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Larissa">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Larissa-Design">
   <a:themeElements>
     <a:clrScheme name="Larissa">
       <a:dk1>
@@ -320,7 +342,7 @@
     </a:clrScheme>
     <a:fontScheme name="Larissa">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -352,10 +374,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -387,7 +408,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Larissa">
@@ -563,22 +583,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="76.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="76.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.5546875" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" ht="21">
       <c r="A1" s="10" t="s">
         <v>11</v>
       </c>
@@ -586,10 +606,10 @@
       <c r="C1" s="8"/>
       <c r="D1" s="1"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4">
       <c r="B2" s="2"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4">
       <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
@@ -603,7 +623,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4">
       <c r="A4" s="5">
         <v>1</v>
       </c>
@@ -613,7 +633,7 @@
       <c r="C4" s="12"/>
       <c r="D4" s="13"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4">
       <c r="A5" s="6"/>
       <c r="B5" s="7" t="s">
         <v>9</v>
@@ -625,13 +645,13 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4">
       <c r="A6" s="6"/>
       <c r="B6" s="7"/>
       <c r="C6" s="9"/>
       <c r="D6" s="6"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4">
       <c r="A7" s="5">
         <v>3</v>
       </c>
@@ -641,7 +661,7 @@
       <c r="C7" s="12"/>
       <c r="D7" s="13"/>
     </row>
-    <row r="8" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" ht="28.8">
       <c r="A8" s="6"/>
       <c r="B8" s="7" t="s">
         <v>6</v>
@@ -653,7 +673,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4">
       <c r="A9" s="6"/>
       <c r="B9" s="7" t="s">
         <v>8</v>
@@ -665,7 +685,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4">
       <c r="A10" s="6"/>
       <c r="B10" s="7" t="s">
         <v>10</v>
@@ -677,13 +697,13 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4">
       <c r="A11" s="6"/>
       <c r="B11" s="7"/>
       <c r="C11" s="9"/>
       <c r="D11" s="6"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4">
       <c r="A12" s="5">
         <v>2</v>
       </c>
@@ -693,7 +713,7 @@
       <c r="C12" s="12"/>
       <c r="D12" s="13"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4">
       <c r="A13" s="6"/>
       <c r="B13" s="7" t="s">
         <v>14</v>
@@ -705,13 +725,13 @@
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4">
       <c r="A14" s="6"/>
       <c r="B14" s="7"/>
       <c r="C14" s="9"/>
       <c r="D14" s="6"/>
     </row>
-    <row r="15" spans="1:4" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" ht="29.25" customHeight="1">
       <c r="A15" s="5">
         <v>4</v>
       </c>
@@ -721,7 +741,7 @@
       <c r="C15" s="12"/>
       <c r="D15" s="13"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4">
       <c r="A16" s="6"/>
       <c r="B16" s="7" t="s">
         <v>15</v>
@@ -733,7 +753,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" ht="28.8">
       <c r="A17" s="6"/>
       <c r="B17" s="7" t="s">
         <v>16</v>
@@ -746,6 +766,7 @@
       </c>
     </row>
   </sheetData>
+  <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="5">
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="B4:D4"/>
@@ -758,22 +779,22 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="76.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="76.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.5546875" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" ht="21">
       <c r="A1" s="10" t="s">
         <v>20</v>
       </c>
@@ -781,10 +802,10 @@
       <c r="C1" s="8"/>
       <c r="D1" s="1"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4">
       <c r="B2" s="2"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4">
       <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
@@ -798,7 +819,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4">
       <c r="A4" s="5">
         <v>5</v>
       </c>
@@ -808,19 +829,19 @@
       <c r="C4" s="12"/>
       <c r="D4" s="13"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4">
       <c r="A5" s="6"/>
       <c r="B5" s="7"/>
       <c r="C5" s="9"/>
       <c r="D5" s="6"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4">
       <c r="A6" s="6"/>
       <c r="B6" s="7"/>
       <c r="C6" s="9"/>
       <c r="D6" s="6"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4">
       <c r="A7" s="5">
         <v>7</v>
       </c>
@@ -830,31 +851,31 @@
       <c r="C7" s="12"/>
       <c r="D7" s="13"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4">
       <c r="A8" s="6"/>
       <c r="B8" s="7"/>
       <c r="C8" s="9"/>
       <c r="D8" s="6"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4">
       <c r="A9" s="6"/>
       <c r="B9" s="7"/>
       <c r="C9" s="9"/>
       <c r="D9" s="6"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4">
       <c r="A10" s="6"/>
       <c r="B10" s="7"/>
       <c r="C10" s="9"/>
       <c r="D10" s="6"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4">
       <c r="A11" s="6"/>
       <c r="B11" s="7"/>
       <c r="C11" s="9"/>
       <c r="D11" s="6"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4">
       <c r="A12" s="5">
         <v>2</v>
       </c>
@@ -864,7 +885,7 @@
       <c r="C12" s="12"/>
       <c r="D12" s="13"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4">
       <c r="A13" s="6"/>
       <c r="B13" s="7" t="s">
         <v>24</v>
@@ -872,13 +893,13 @@
       <c r="C13" s="9"/>
       <c r="D13" s="6"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4">
       <c r="A14" s="6"/>
       <c r="B14" s="7"/>
       <c r="C14" s="9"/>
       <c r="D14" s="6"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4">
       <c r="A15" s="5">
         <v>6</v>
       </c>
@@ -888,21 +909,191 @@
       <c r="C15" s="12"/>
       <c r="D15" s="13"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4">
       <c r="A16" s="6"/>
       <c r="B16" s="7"/>
       <c r="C16" s="9"/>
       <c r="D16" s="6"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4">
       <c r="A17" s="6"/>
       <c r="B17" s="7"/>
       <c r="C17" s="9"/>
       <c r="D17" s="6"/>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4">
       <c r="A19" s="14" t="s">
         <v>25</v>
+      </c>
+      <c r="B19" s="14"/>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="B15:D15"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="76.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.21875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="14" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="21">
+      <c r="A1" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="10"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="1"/>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="B2" s="2"/>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="5">
+        <v>5</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="12"/>
+      <c r="D4" s="13"/>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="6"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="D5" s="6"/>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="6"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="6"/>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="5">
+        <v>7</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" s="12"/>
+      <c r="D7" s="13"/>
+    </row>
+    <row r="8" spans="1:4" ht="43.2">
+      <c r="A8" s="6"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D8" s="6"/>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="6"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="6"/>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="6"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="6"/>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="6"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="6"/>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="5">
+        <v>2</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12" s="12"/>
+      <c r="D12" s="13"/>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="6"/>
+      <c r="B13" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D13" s="6"/>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="6"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="6"/>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="5">
+        <v>6</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C15" s="12"/>
+      <c r="D15" s="13"/>
+    </row>
+    <row r="16" spans="1:4" ht="28.8">
+      <c r="A16" s="6"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="D16" s="6"/>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="6"/>
+      <c r="B17" s="7"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="6"/>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="14" t="s">
+        <v>27</v>
       </c>
       <c r="B19" s="14"/>
     </row>

--- a/ScrumDoku/Sprint_Backlog_1.xlsx
+++ b/ScrumDoku/Sprint_Backlog_1.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="35">
   <si>
     <t>StoryID</t>
   </si>
@@ -118,13 +118,16 @@
   </si>
   <si>
     <t>Remo, Alex, Eyesil</t>
+  </si>
+  <si>
+    <t>erledigt</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -300,7 +303,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Larissa-Design">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Larissa">
   <a:themeElements>
     <a:clrScheme name="Larissa">
       <a:dk1>
@@ -342,7 +345,7 @@
     </a:clrScheme>
     <a:fontScheme name="Larissa">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -374,9 +377,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -408,6 +412,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Larissa">
@@ -583,22 +588,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="76.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="76.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.5703125" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="21">
+    <row r="1" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A1" s="10" t="s">
         <v>11</v>
       </c>
@@ -606,10 +611,10 @@
       <c r="C1" s="8"/>
       <c r="D1" s="1"/>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B2" s="2"/>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
@@ -623,7 +628,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <v>1</v>
       </c>
@@ -633,7 +638,7 @@
       <c r="C4" s="12"/>
       <c r="D4" s="13"/>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="6"/>
       <c r="B5" s="7" t="s">
         <v>9</v>
@@ -645,13 +650,13 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="6"/>
       <c r="B6" s="7"/>
       <c r="C6" s="9"/>
       <c r="D6" s="6"/>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <v>3</v>
       </c>
@@ -661,7 +666,7 @@
       <c r="C7" s="12"/>
       <c r="D7" s="13"/>
     </row>
-    <row r="8" spans="1:4" ht="28.8">
+    <row r="8" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="6"/>
       <c r="B8" s="7" t="s">
         <v>6</v>
@@ -673,7 +678,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="6"/>
       <c r="B9" s="7" t="s">
         <v>8</v>
@@ -685,7 +690,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="6"/>
       <c r="B10" s="7" t="s">
         <v>10</v>
@@ -697,13 +702,13 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="6"/>
       <c r="B11" s="7"/>
       <c r="C11" s="9"/>
       <c r="D11" s="6"/>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
         <v>2</v>
       </c>
@@ -713,7 +718,7 @@
       <c r="C12" s="12"/>
       <c r="D12" s="13"/>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="6"/>
       <c r="B13" s="7" t="s">
         <v>14</v>
@@ -725,13 +730,13 @@
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="6"/>
       <c r="B14" s="7"/>
       <c r="C14" s="9"/>
       <c r="D14" s="6"/>
     </row>
-    <row r="15" spans="1:4" ht="29.25" customHeight="1">
+    <row r="15" spans="1:4" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="5">
         <v>4</v>
       </c>
@@ -741,7 +746,7 @@
       <c r="C15" s="12"/>
       <c r="D15" s="13"/>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="6"/>
       <c r="B16" s="7" t="s">
         <v>15</v>
@@ -753,7 +758,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="28.8">
+    <row r="17" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="6"/>
       <c r="B17" s="7" t="s">
         <v>16</v>
@@ -779,22 +784,22 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="76.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="76.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.5703125" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="21">
+    <row r="1" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A1" s="10" t="s">
         <v>20</v>
       </c>
@@ -802,10 +807,10 @@
       <c r="C1" s="8"/>
       <c r="D1" s="1"/>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B2" s="2"/>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
@@ -819,7 +824,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <v>5</v>
       </c>
@@ -829,19 +834,25 @@
       <c r="C4" s="12"/>
       <c r="D4" s="13"/>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="6"/>
-      <c r="B5" s="7"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="6"/>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="B5" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="6"/>
       <c r="B6" s="7"/>
       <c r="C6" s="9"/>
       <c r="D6" s="6"/>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <v>7</v>
       </c>
@@ -851,31 +862,31 @@
       <c r="C7" s="12"/>
       <c r="D7" s="13"/>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="6"/>
       <c r="B8" s="7"/>
       <c r="C8" s="9"/>
       <c r="D8" s="6"/>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="6"/>
       <c r="B9" s="7"/>
       <c r="C9" s="9"/>
       <c r="D9" s="6"/>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="6"/>
       <c r="B10" s="7"/>
       <c r="C10" s="9"/>
       <c r="D10" s="6"/>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="6"/>
       <c r="B11" s="7"/>
       <c r="C11" s="9"/>
       <c r="D11" s="6"/>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
         <v>2</v>
       </c>
@@ -885,7 +896,7 @@
       <c r="C12" s="12"/>
       <c r="D12" s="13"/>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="6"/>
       <c r="B13" s="7" t="s">
         <v>24</v>
@@ -893,13 +904,13 @@
       <c r="C13" s="9"/>
       <c r="D13" s="6"/>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="6"/>
       <c r="B14" s="7"/>
       <c r="C14" s="9"/>
       <c r="D14" s="6"/>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="5">
         <v>6</v>
       </c>
@@ -909,19 +920,19 @@
       <c r="C15" s="12"/>
       <c r="D15" s="13"/>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="6"/>
       <c r="B16" s="7"/>
       <c r="C16" s="9"/>
       <c r="D16" s="6"/>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="6"/>
       <c r="B17" s="7"/>
       <c r="C17" s="9"/>
       <c r="D17" s="6"/>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="14" t="s">
         <v>25</v>
       </c>
@@ -941,22 +952,22 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="76.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.21875" style="2" customWidth="1"/>
+    <col min="1" max="1" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="76.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.28515625" style="2" customWidth="1"/>
     <col min="4" max="4" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="21">
+    <row r="1" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A1" s="10" t="s">
         <v>20</v>
       </c>
@@ -964,10 +975,10 @@
       <c r="C1" s="8"/>
       <c r="D1" s="1"/>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B2" s="2"/>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
@@ -981,7 +992,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <v>5</v>
       </c>
@@ -991,7 +1002,7 @@
       <c r="C4" s="12"/>
       <c r="D4" s="13"/>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="6"/>
       <c r="B5" s="7"/>
       <c r="C5" s="9" t="s">
@@ -999,13 +1010,13 @@
       </c>
       <c r="D5" s="6"/>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="6"/>
       <c r="B6" s="7"/>
       <c r="C6" s="9"/>
       <c r="D6" s="6"/>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <v>7</v>
       </c>
@@ -1015,7 +1026,7 @@
       <c r="C7" s="12"/>
       <c r="D7" s="13"/>
     </row>
-    <row r="8" spans="1:4" ht="43.2">
+    <row r="8" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="6"/>
       <c r="B8" s="7"/>
       <c r="C8" s="9" t="s">
@@ -1023,25 +1034,25 @@
       </c>
       <c r="D8" s="6"/>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="6"/>
       <c r="B9" s="7"/>
       <c r="C9" s="9"/>
       <c r="D9" s="6"/>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="6"/>
       <c r="B10" s="7"/>
       <c r="C10" s="9"/>
       <c r="D10" s="6"/>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="6"/>
       <c r="B11" s="7"/>
       <c r="C11" s="9"/>
       <c r="D11" s="6"/>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
         <v>2</v>
       </c>
@@ -1051,7 +1062,7 @@
       <c r="C12" s="12"/>
       <c r="D12" s="13"/>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="6"/>
       <c r="B13" s="7" t="s">
         <v>24</v>
@@ -1061,13 +1072,13 @@
       </c>
       <c r="D13" s="6"/>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="6"/>
       <c r="B14" s="7"/>
       <c r="C14" s="9"/>
       <c r="D14" s="6"/>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="5">
         <v>6</v>
       </c>
@@ -1077,7 +1088,7 @@
       <c r="C15" s="12"/>
       <c r="D15" s="13"/>
     </row>
-    <row r="16" spans="1:4" ht="28.8">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="6"/>
       <c r="B16" s="7"/>
       <c r="C16" s="9" t="s">
@@ -1085,13 +1096,13 @@
       </c>
       <c r="D16" s="6"/>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="6"/>
       <c r="B17" s="7"/>
       <c r="C17" s="9"/>
       <c r="D17" s="6"/>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="14" t="s">
         <v>27</v>
       </c>
@@ -1099,12 +1110,12 @@
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="A19:B19"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="B4:D4"/>
     <mergeCell ref="B7:D7"/>
     <mergeCell ref="B12:D12"/>
     <mergeCell ref="B15:D15"/>
-    <mergeCell ref="A19:B19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/ScrumDoku/Sprint_Backlog_1.xlsx
+++ b/ScrumDoku/Sprint_Backlog_1.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
   </bookViews>
   <sheets>
-    <sheet name="1" sheetId="1" r:id="rId1"/>
-    <sheet name="2" sheetId="3" r:id="rId2"/>
-    <sheet name="3" sheetId="5" r:id="rId3"/>
+    <sheet name="0" sheetId="6" r:id="rId1"/>
+    <sheet name="1" sheetId="1" r:id="rId2"/>
+    <sheet name="2" sheetId="3" r:id="rId3"/>
+    <sheet name="3" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="58">
   <si>
     <t>StoryID</t>
   </si>
@@ -90,9 +91,6 @@
     <t xml:space="preserve">Der Entwickler kann Spiele in XML-Dateien definieren. </t>
   </si>
   <si>
-    <t>Einige Spieldateien in XML erstellen</t>
-  </si>
-  <si>
     <t>Scrum Master: Remo Koller</t>
   </si>
   <si>
@@ -111,16 +109,88 @@
     <t>Der Benutzer kann die verschiedenen Funktionen in einer Toolbar auslösen.</t>
   </si>
   <si>
-    <t>Csolis</t>
-  </si>
-  <si>
     <t>Remo, Alex</t>
   </si>
   <si>
     <t>Remo, Alex, Eyesil</t>
   </si>
   <si>
-    <t>erledigt</t>
+    <t>Bimaru: Sprint Backlog 0</t>
+  </si>
+  <si>
+    <t>Toggle-Verhalten im Spielfeld-Model implementieren</t>
+  </si>
+  <si>
+    <t>Bilder laden und je nach Feldzustand anzeigen</t>
+  </si>
+  <si>
+    <t>Click auf Feld (Button) löst Toggle aus</t>
+  </si>
+  <si>
+    <t>in Bearbeitung</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gitter aus Buttons entsprechend der Feldgrösse generieren </t>
+  </si>
+  <si>
+    <t>Verschoben</t>
+  </si>
+  <si>
+    <t>Bimaru: Sprint Backlog 3</t>
+  </si>
+  <si>
+    <t>csolis</t>
+  </si>
+  <si>
+    <t>Testweise einige Spieldateien in XML erstellen</t>
+  </si>
+  <si>
+    <t>Scrum Master: Amedeo Amato</t>
+  </si>
+  <si>
+    <t>Kleine Icons für die Schiffsteile erstellen</t>
+  </si>
+  <si>
+    <t>Schiffs-Anzeigen beliebiger Länge aus den Icons zusammensetzen</t>
+  </si>
+  <si>
+    <t>Schiffe aus Model holen und je eine Schiffs-Anzeige generieren.</t>
+  </si>
+  <si>
+    <t>Schiffs-Anzeigen unter Schiffsfeld platzieren und ausrichten.</t>
+  </si>
+  <si>
+    <t>Schiffs-Abzeigen bei Klick ausgrauen. (Automatische Erkennung zu komplex)</t>
+  </si>
+  <si>
+    <t>asmelt</t>
+  </si>
+  <si>
+    <t>Icons der Schiffsteile erstellen</t>
+  </si>
+  <si>
+    <t>Bei Toggeln eines Feldes alle 9 umgebenden Felder updaten</t>
+  </si>
+  <si>
+    <t>Anhand der umgebenden Felder erkennen um welches Schiffsteil es sich handelt</t>
+  </si>
+  <si>
+    <t>Hinweisfelder  immer definiert anzeigen, unabhängig der Umgebung.</t>
+  </si>
+  <si>
+    <t>Wird ein Schiffsteil ungültig platziert (zu nah an anderem Schiff, ...) wird das Schiffsteil rot angezeigt.</t>
+  </si>
+  <si>
+    <t>Rote Icons der Schiffsteile erstellen</t>
+  </si>
+  <si>
+    <t>Anhand der umgebenden Felder erkennen ob die Teile ungültig platziert wurden</t>
+  </si>
+  <si>
+    <t>Umgebung von Hinweisfelder speziell auf Ungültigkeit prüfen</t>
+  </si>
+  <si>
+    <t>Bei ungültigen Felder die Icons durch rote ersetzen</t>
   </si>
 </sst>
 </file>
@@ -243,7 +313,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -284,6 +354,19 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -303,9 +386,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Larissa">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Larissa">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -343,7 +426,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Larissa">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -415,7 +498,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Larissa">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -592,7 +675,187 @@
   <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+      <selection activeCell="G8" sqref="G8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="76.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+      <c r="A1" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" s="10"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B2" s="2"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="5">
+        <v>1</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="12"/>
+      <c r="D4" s="13"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="6"/>
+      <c r="B5" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="6"/>
+      <c r="B6" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="6"/>
+      <c r="B7" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="6"/>
+      <c r="B8" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="6"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="5">
+        <v>3</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" s="12"/>
+      <c r="D10" s="13"/>
+    </row>
+    <row r="11" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="6"/>
+      <c r="B11" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="6"/>
+      <c r="B12" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="6"/>
+      <c r="B13" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="6"/>
+      <c r="B14" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="B17" s="14"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="A17:B17"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -770,177 +1033,15 @@
         <v>18</v>
       </c>
     </row>
-  </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1"/>
-  <mergeCells count="5">
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="B15:D15"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D19"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="76.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="1"/>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B2" s="2"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="5">
-        <v>5</v>
-      </c>
-      <c r="B4" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="C4" s="12"/>
-      <c r="D4" s="13"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="6"/>
-      <c r="B5" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="6"/>
-      <c r="B6" s="7"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="6"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="5">
-        <v>7</v>
-      </c>
-      <c r="B7" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" s="12"/>
-      <c r="D7" s="13"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="6"/>
-      <c r="B8" s="7"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="6"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="6"/>
-      <c r="B9" s="7"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="6"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="6"/>
-      <c r="B10" s="7"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="6"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="6"/>
-      <c r="B11" s="7"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="6"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="5">
-        <v>2</v>
-      </c>
-      <c r="B12" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="C12" s="12"/>
-      <c r="D12" s="13"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="6"/>
-      <c r="B13" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C13" s="9"/>
-      <c r="D13" s="6"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="6"/>
-      <c r="B14" s="7"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="6"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="5">
-        <v>6</v>
-      </c>
-      <c r="B15" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="C15" s="12"/>
-      <c r="D15" s="13"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="6"/>
-      <c r="B16" s="7"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="6"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="6"/>
-      <c r="B17" s="7"/>
-      <c r="C17" s="9"/>
-      <c r="D17" s="6"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="B19" s="14"/>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="B20" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A20:B20"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="B4:D4"/>
     <mergeCell ref="B7:D7"/>
@@ -953,10 +1054,251 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D19"/>
+  <dimension ref="A1:D25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="A20" sqref="A20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="76.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.5703125" style="18" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+      <c r="A1" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="10"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="1"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B2" s="2"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="5">
+        <v>5</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="12"/>
+      <c r="D4" s="13"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="6"/>
+      <c r="B5" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="6"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="6"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="5">
+        <v>7</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="12"/>
+      <c r="D7" s="13"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="6"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="D8" s="6"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="6"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="6"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="5">
+        <v>2</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" s="12"/>
+      <c r="D10" s="13"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="6"/>
+      <c r="B11" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="6"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="6"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="5">
+        <v>6</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" s="12"/>
+      <c r="D13" s="13"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="6"/>
+      <c r="B14" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="6"/>
+      <c r="B15" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="6"/>
+      <c r="B16" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="6"/>
+      <c r="B17" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="6"/>
+      <c r="B18" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="C18" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="D18" s="16" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="6"/>
+      <c r="B19" s="15"/>
+      <c r="C19" s="19"/>
+      <c r="D19" s="16"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="5">
+        <v>11</v>
+      </c>
+      <c r="B20" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="C20" s="12"/>
+      <c r="D20" s="13"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="15"/>
+      <c r="B21" s="15"/>
+      <c r="C21" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="D21" s="15"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="15"/>
+      <c r="B22" s="15"/>
+      <c r="C22" s="19"/>
+      <c r="D22" s="15"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" s="14"/>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="B20:D20"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D29"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -969,7 +1311,7 @@
   <sheetData>
     <row r="1" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A1" s="10" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="B1" s="10"/>
       <c r="C1" s="8"/>
@@ -994,7 +1336,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B4" s="11" t="s">
         <v>22</v>
@@ -1006,7 +1348,7 @@
       <c r="A5" s="6"/>
       <c r="B5" s="7"/>
       <c r="C5" s="9" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="D5" s="6"/>
     </row>
@@ -1018,10 +1360,10 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C7" s="12"/>
       <c r="D7" s="13"/>
@@ -1030,7 +1372,7 @@
       <c r="A8" s="6"/>
       <c r="B8" s="7"/>
       <c r="C8" s="9" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D8" s="6"/>
     </row>
@@ -1052,12 +1394,12 @@
       <c r="C11" s="9"/>
       <c r="D11" s="6"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C12" s="12"/>
       <c r="D12" s="13"/>
@@ -1065,36 +1407,50 @@
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="6"/>
       <c r="B13" s="7" t="s">
-        <v>24</v>
+        <v>49</v>
       </c>
       <c r="C13" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="D13" s="6"/>
+      <c r="D13" s="6" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="6"/>
-      <c r="B14" s="7"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="6"/>
+      <c r="B14" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="5">
-        <v>6</v>
-      </c>
-      <c r="B15" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="C15" s="12"/>
-      <c r="D15" s="13"/>
+      <c r="A15" s="6"/>
+      <c r="B15" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="6"/>
-      <c r="B16" s="7"/>
+      <c r="B16" s="7" t="s">
+        <v>52</v>
+      </c>
       <c r="C16" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="D16" s="6"/>
+        <v>7</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="6"/>
@@ -1102,20 +1458,109 @@
       <c r="C17" s="9"/>
       <c r="D17" s="6"/>
     </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="5">
+        <v>10</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="C18" s="12"/>
+      <c r="D18" s="13"/>
+    </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="B19" s="14"/>
+      <c r="A19" s="6"/>
+      <c r="B19" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="6"/>
+      <c r="B20" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="6"/>
+      <c r="B21" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="6"/>
+      <c r="B22" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="6"/>
+      <c r="B23" s="7"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="6"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="5">
+        <v>11</v>
+      </c>
+      <c r="B24" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="C24" s="12"/>
+      <c r="D24" s="13"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="6"/>
+      <c r="B25" s="7"/>
+      <c r="C25" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D25" s="6"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="6"/>
+      <c r="B26" s="7"/>
+      <c r="C26" s="9"/>
+      <c r="D26" s="6"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="B29" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="A19:B19"/>
+  <mergeCells count="7">
+    <mergeCell ref="A29:B29"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="B4:D4"/>
     <mergeCell ref="B7:D7"/>
     <mergeCell ref="B12:D12"/>
-    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="B18:D18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/ScrumDoku/Sprint_Backlog_1.xlsx
+++ b/ScrumDoku/Sprint_Backlog_1.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="62">
   <si>
     <t>StoryID</t>
   </si>
@@ -191,6 +191,18 @@
   </si>
   <si>
     <t>Bei ungültigen Felder die Icons durch rote ersetzen</t>
+  </si>
+  <si>
+    <t>Das Spiel wird beendet und die Lösung auf dem aktuellen Spielfeld angezeigt</t>
+  </si>
+  <si>
+    <t>erledigt</t>
+  </si>
+  <si>
+    <t>Die Lösung wird in einem zusätzlichen Fenster angezeigt, ohne das Spiel zu beenden</t>
+  </si>
+  <si>
+    <t>in bearbeitung</t>
   </si>
 </sst>
 </file>
@@ -340,21 +352,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -367,6 +364,21 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -386,9 +398,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Larissa">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Larissa">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -426,7 +438,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Larissa">
       <a:majorFont>
         <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -498,7 +510,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Larissa">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -687,10 +699,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="10"/>
+      <c r="B1" s="15"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
     </row>
@@ -715,11 +727,11 @@
       <c r="A4" s="5">
         <v>1</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="12"/>
-      <c r="D4" s="13"/>
+      <c r="C4" s="17"/>
+      <c r="D4" s="18"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="6"/>
@@ -779,11 +791,11 @@
       <c r="A10" s="5">
         <v>3</v>
       </c>
-      <c r="B10" s="11" t="s">
+      <c r="B10" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="C10" s="12"/>
-      <c r="D10" s="13"/>
+      <c r="C10" s="17"/>
+      <c r="D10" s="18"/>
     </row>
     <row r="11" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="6"/>
@@ -834,10 +846,10 @@
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="14" t="s">
+      <c r="A17" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="B17" s="14"/>
+      <c r="B17" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -867,10 +879,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="10"/>
+      <c r="B1" s="15"/>
       <c r="C1" s="8"/>
       <c r="D1" s="1"/>
     </row>
@@ -895,11 +907,11 @@
       <c r="A4" s="5">
         <v>1</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="12"/>
-      <c r="D4" s="13"/>
+      <c r="C4" s="17"/>
+      <c r="D4" s="18"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="6"/>
@@ -923,11 +935,11 @@
       <c r="A7" s="5">
         <v>3</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="12"/>
-      <c r="D7" s="13"/>
+      <c r="C7" s="17"/>
+      <c r="D7" s="18"/>
     </row>
     <row r="8" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="6"/>
@@ -975,11 +987,11 @@
       <c r="A12" s="5">
         <v>2</v>
       </c>
-      <c r="B12" s="11" t="s">
+      <c r="B12" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="12"/>
-      <c r="D12" s="13"/>
+      <c r="C12" s="17"/>
+      <c r="D12" s="18"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="6"/>
@@ -1003,11 +1015,11 @@
       <c r="A15" s="5">
         <v>4</v>
       </c>
-      <c r="B15" s="11" t="s">
+      <c r="B15" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="12"/>
-      <c r="D15" s="13"/>
+      <c r="C15" s="17"/>
+      <c r="D15" s="18"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="6"/>
@@ -1034,10 +1046,10 @@
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="14" t="s">
+      <c r="A20" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="B20" s="14"/>
+      <c r="B20" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -1064,16 +1076,16 @@
   <cols>
     <col min="1" max="1" width="7.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="76.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.5703125" style="18" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.5703125" style="13" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="17"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="12"/>
       <c r="D1" s="1"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -1097,11 +1109,11 @@
       <c r="A4" s="5">
         <v>5</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="12"/>
-      <c r="D4" s="13"/>
+      <c r="C4" s="17"/>
+      <c r="D4" s="18"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="6"/>
@@ -1125,11 +1137,11 @@
       <c r="A7" s="5">
         <v>7</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="C7" s="12"/>
-      <c r="D7" s="13"/>
+      <c r="C7" s="17"/>
+      <c r="D7" s="18"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="6"/>
@@ -1149,11 +1161,11 @@
       <c r="A10" s="5">
         <v>2</v>
       </c>
-      <c r="B10" s="11" t="s">
+      <c r="B10" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="C10" s="12"/>
-      <c r="D10" s="13"/>
+      <c r="C10" s="17"/>
+      <c r="D10" s="18"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="6"/>
@@ -1177,11 +1189,11 @@
       <c r="A13" s="5">
         <v>6</v>
       </c>
-      <c r="B13" s="11" t="s">
+      <c r="B13" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="C13" s="12"/>
-      <c r="D13" s="13"/>
+      <c r="C13" s="17"/>
+      <c r="D13" s="18"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="6"/>
@@ -1233,51 +1245,51 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="6"/>
-      <c r="B18" s="15" t="s">
+      <c r="B18" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="C18" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="D18" s="16" t="s">
+      <c r="C18" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="D18" s="11" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="6"/>
-      <c r="B19" s="15"/>
-      <c r="C19" s="19"/>
-      <c r="D19" s="16"/>
+      <c r="B19" s="10"/>
+      <c r="C19" s="14"/>
+      <c r="D19" s="11"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="5">
         <v>11</v>
       </c>
-      <c r="B20" s="11" t="s">
+      <c r="B20" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="C20" s="12"/>
-      <c r="D20" s="13"/>
+      <c r="C20" s="17"/>
+      <c r="D20" s="18"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="15"/>
-      <c r="B21" s="15"/>
-      <c r="C21" s="19" t="s">
+      <c r="A21" s="10"/>
+      <c r="B21" s="10"/>
+      <c r="C21" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="D21" s="15"/>
+      <c r="D21" s="10"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="15"/>
-      <c r="B22" s="15"/>
-      <c r="C22" s="19"/>
-      <c r="D22" s="15"/>
+      <c r="A22" s="10"/>
+      <c r="B22" s="10"/>
+      <c r="C22" s="14"/>
+      <c r="D22" s="10"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="14" t="s">
+      <c r="A25" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="B25" s="14"/>
+      <c r="B25" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -1297,8 +1309,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1310,10 +1322,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="10"/>
+      <c r="B1" s="15"/>
       <c r="C1" s="8"/>
       <c r="D1" s="1"/>
     </row>
@@ -1338,11 +1350,11 @@
       <c r="A4" s="5">
         <v>7</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="C4" s="12"/>
-      <c r="D4" s="13"/>
+      <c r="C4" s="17"/>
+      <c r="D4" s="18"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="6"/>
@@ -1362,25 +1374,35 @@
       <c r="A7" s="5">
         <v>8</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="12"/>
-      <c r="D7" s="13"/>
+      <c r="C7" s="17"/>
+      <c r="D7" s="18"/>
     </row>
     <row r="8" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="6"/>
-      <c r="B8" s="7"/>
+      <c r="B8" s="7" t="s">
+        <v>58</v>
+      </c>
       <c r="C8" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="D8" s="6"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D8" s="6" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="6"/>
-      <c r="B9" s="7"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="6"/>
+      <c r="B9" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="6"/>
@@ -1398,11 +1420,11 @@
       <c r="A12" s="5">
         <v>9</v>
       </c>
-      <c r="B12" s="11" t="s">
+      <c r="B12" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="C12" s="12"/>
-      <c r="D12" s="13"/>
+      <c r="C12" s="17"/>
+      <c r="D12" s="18"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="6"/>
@@ -1462,11 +1484,11 @@
       <c r="A18" s="5">
         <v>10</v>
       </c>
-      <c r="B18" s="11" t="s">
+      <c r="B18" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="C18" s="12"/>
-      <c r="D18" s="13"/>
+      <c r="C18" s="17"/>
+      <c r="D18" s="18"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="6"/>
@@ -1526,11 +1548,11 @@
       <c r="A24" s="5">
         <v>11</v>
       </c>
-      <c r="B24" s="11" t="s">
+      <c r="B24" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="C24" s="12"/>
-      <c r="D24" s="13"/>
+      <c r="C24" s="17"/>
+      <c r="D24" s="18"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="6"/>
@@ -1547,10 +1569,10 @@
       <c r="D26" s="6"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="14" t="s">
+      <c r="A29" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="B29" s="14"/>
+      <c r="B29" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="7">

--- a/ScrumDoku/Sprint_Backlog_1.xlsx
+++ b/ScrumDoku/Sprint_Backlog_1.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="63">
   <si>
     <t>StoryID</t>
   </si>
@@ -203,6 +203,9 @@
   </si>
   <si>
     <t>in bearbeitung</t>
+  </si>
+  <si>
+    <t>Bilder von den einzelnen Lösungen erstellen</t>
   </si>
 </sst>
 </file>
@@ -1310,7 +1313,7 @@
   <dimension ref="A1:D29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1395,7 +1398,7 @@
     <row r="9" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="6"/>
       <c r="B9" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C9" s="9" t="s">
         <v>31</v>
@@ -1404,11 +1407,17 @@
         <v>61</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="6"/>
-      <c r="B10" s="7"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="6"/>
+      <c r="B10" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="6"/>

--- a/ScrumDoku/Sprint_Backlog_1.xlsx
+++ b/ScrumDoku/Sprint_Backlog_1.xlsx
@@ -4,20 +4,21 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="0" sheetId="6" r:id="rId1"/>
     <sheet name="1" sheetId="1" r:id="rId2"/>
     <sheet name="2" sheetId="3" r:id="rId3"/>
     <sheet name="3" sheetId="5" r:id="rId4"/>
+    <sheet name="4" sheetId="7" r:id="rId5"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="81">
   <si>
     <t>StoryID</t>
   </si>
@@ -199,13 +200,68 @@
     <t>erledigt</t>
   </si>
   <si>
-    <t>Die Lösung wird in einem zusätzlichen Fenster angezeigt, ohne das Spiel zu beenden</t>
-  </si>
-  <si>
-    <t>in bearbeitung</t>
-  </si>
-  <si>
-    <t>Bilder von den einzelnen Lösungen erstellen</t>
+    <t>Nach Anzeigen der Lösung toggeln verhindern</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alex </t>
+  </si>
+  <si>
+    <t>Der Spieler kann das Spiel jederzeit neu starten / resetten.</t>
+  </si>
+  <si>
+    <t>Eyesil</t>
+  </si>
+  <si>
+    <t>Scrum Master: Yesil Egemen</t>
+  </si>
+  <si>
+    <t>Aamato</t>
+  </si>
+  <si>
+    <t>Bimaru: Sprint Backlog 4</t>
+  </si>
+  <si>
+    <t>Help-Button öffnet  Bedienungsanleitung</t>
+  </si>
+  <si>
+    <t>Rkoller</t>
+  </si>
+  <si>
+    <t>Dropdown Menü</t>
+  </si>
+  <si>
+    <t>5 zusätzliche Spieldateien erstellen</t>
+  </si>
+  <si>
+    <t>neue Spieldateien in Dropdown Menü einfügen</t>
+  </si>
+  <si>
+    <t>klick auf Help-Button öffnet im neuen Fenster Anleitung</t>
+  </si>
+  <si>
+    <t>Anleitung erstellen (Spielablauf,Erklärung der Buttons,Regeln)</t>
+  </si>
+  <si>
+    <t>durch drücken des Reset-Buttons, auf Anfangszustand zurücksetzen</t>
+  </si>
+  <si>
+    <t>Das System startet beim ersten Feld-Klick eine Zeitmessung, um dem Benutzer anzuzeigen wie lange
+ er zum Lösen des Spiels brauchte.</t>
+  </si>
+  <si>
+    <t>beim drücken des Clock-Buttons wird die aktuelle Zeit in einem neuen Fenster angezeigt</t>
+  </si>
+  <si>
+    <t>Zeit laufend aktualisieren</t>
+  </si>
+  <si>
+    <t>Pause-Button erzeugen</t>
+  </si>
+  <si>
+    <t>Icons für die einzelnen Funktionen erstellen</t>
+  </si>
+  <si>
+    <t>die implementierten Funktionen auslösen, testen</t>
   </si>
 </sst>
 </file>
@@ -328,7 +384,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -382,6 +438,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -855,6 +920,7 @@
       <c r="B17" s="19"/>
     </row>
   </sheetData>
+  <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="4">
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="B4:D4"/>
@@ -1055,6 +1121,7 @@
       <c r="B20" s="19"/>
     </row>
   </sheetData>
+  <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="6">
     <mergeCell ref="A20:B20"/>
     <mergeCell ref="A1:B1"/>
@@ -1072,7 +1139,7 @@
   <dimension ref="A1:D25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+      <selection activeCell="A25" sqref="A25:B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1276,7 +1343,9 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="10"/>
-      <c r="B21" s="10"/>
+      <c r="B21" s="10" t="s">
+        <v>79</v>
+      </c>
       <c r="C21" s="14" t="s">
         <v>48</v>
       </c>
@@ -1295,6 +1364,7 @@
       <c r="B25" s="19"/>
     </row>
   </sheetData>
+  <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="7">
     <mergeCell ref="A25:B25"/>
     <mergeCell ref="A1:B1"/>
@@ -1312,8 +1382,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1361,11 +1431,15 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="6"/>
-      <c r="B5" s="7"/>
+      <c r="B5" s="7" t="s">
+        <v>69</v>
+      </c>
       <c r="C5" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="D5" s="6"/>
+      <c r="D5" s="6" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="6"/>
@@ -1398,26 +1472,20 @@
     <row r="9" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="6"/>
       <c r="B9" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C9" s="9" t="s">
         <v>31</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="6"/>
-      <c r="B10" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="C10" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>61</v>
-      </c>
+      <c r="B10" s="7"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="6"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="6"/>
@@ -1565,7 +1633,9 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="6"/>
-      <c r="B25" s="7"/>
+      <c r="B25" s="7" t="s">
+        <v>80</v>
+      </c>
       <c r="C25" s="9" t="s">
         <v>30</v>
       </c>
@@ -1584,6 +1654,7 @@
       <c r="B29" s="19"/>
     </row>
   </sheetData>
+  <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="7">
     <mergeCell ref="A29:B29"/>
     <mergeCell ref="A1:B1"/>
@@ -1595,4 +1666,259 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D28"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="76.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.28515625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="14" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+      <c r="A1" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="B1" s="15"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="1"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B2" s="2"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="5">
+        <v>7</v>
+      </c>
+      <c r="B4" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="17"/>
+      <c r="D4" s="18"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="6"/>
+      <c r="B5" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="D5" s="6"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="6"/>
+      <c r="B6" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="D6" s="6"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="6"/>
+      <c r="B7" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="D7" s="6"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="6"/>
+      <c r="B8" s="20"/>
+      <c r="C8" s="21"/>
+      <c r="D8" s="22"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="5">
+        <v>8</v>
+      </c>
+      <c r="B9" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" s="17"/>
+      <c r="D9" s="18"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="6"/>
+      <c r="B10" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="6"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="6"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="6"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="6"/>
+    </row>
+    <row r="13" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="5">
+        <v>12</v>
+      </c>
+      <c r="B13" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="C13" s="17"/>
+      <c r="D13" s="18"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="6"/>
+      <c r="B14" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="D14" s="6"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="6"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="6"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="6"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="6"/>
+    </row>
+    <row r="17" spans="1:4" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="5">
+        <v>13</v>
+      </c>
+      <c r="B17" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="C17" s="17"/>
+      <c r="D17" s="18"/>
+    </row>
+    <row r="18" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A18" s="6"/>
+      <c r="B18" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="D18" s="6"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="6"/>
+      <c r="B19" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="D19" s="6"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="6"/>
+      <c r="B20" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="D20" s="6"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="6"/>
+      <c r="B21" s="7"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="6"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="6"/>
+      <c r="B22" s="7"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="6"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="5">
+        <v>11</v>
+      </c>
+      <c r="B23" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="C23" s="17"/>
+      <c r="D23" s="18"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="6"/>
+      <c r="B24" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="D24" s="6"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="6"/>
+      <c r="B25" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="D25" s="6"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="B28" s="19"/>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="B23:D23"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/ScrumDoku/Sprint_Backlog_1.xlsx
+++ b/ScrumDoku/Sprint_Backlog_1.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="0" sheetId="6" r:id="rId1"/>
@@ -267,8 +267,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -424,6 +424,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -438,15 +447,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -466,7 +466,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Larissa">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Larissa-Design">
   <a:themeElements>
     <a:clrScheme name="Larissa">
       <a:dk1>
@@ -508,7 +508,7 @@
     </a:clrScheme>
     <a:fontScheme name="Larissa">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -540,10 +540,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -575,7 +574,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Larissa">
@@ -751,33 +749,33 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="76.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="76.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.5546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="15" t="s">
+    <row r="1" spans="1:4" ht="21">
+      <c r="A1" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="15"/>
+      <c r="B1" s="18"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4">
       <c r="B2" s="2"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4">
       <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
@@ -791,17 +789,17 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="30" customHeight="1">
       <c r="A4" s="5">
         <v>1</v>
       </c>
-      <c r="B4" s="16" t="s">
+      <c r="B4" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="17"/>
-      <c r="D4" s="18"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C4" s="20"/>
+      <c r="D4" s="21"/>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" s="6"/>
       <c r="B5" s="7" t="s">
         <v>33</v>
@@ -813,7 +811,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4">
       <c r="A6" s="6"/>
       <c r="B6" s="7" t="s">
         <v>34</v>
@@ -825,7 +823,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4">
       <c r="A7" s="6"/>
       <c r="B7" s="7" t="s">
         <v>35</v>
@@ -837,7 +835,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4">
       <c r="A8" s="6"/>
       <c r="B8" s="7" t="s">
         <v>9</v>
@@ -849,23 +847,23 @@
         <v>36</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4">
       <c r="A9" s="6"/>
       <c r="B9" s="7"/>
       <c r="C9" s="6"/>
       <c r="D9" s="6"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4">
       <c r="A10" s="5">
         <v>3</v>
       </c>
-      <c r="B10" s="16" t="s">
+      <c r="B10" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="C10" s="17"/>
-      <c r="D10" s="18"/>
-    </row>
-    <row r="11" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="C10" s="20"/>
+      <c r="D10" s="21"/>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11" s="6"/>
       <c r="B11" s="7" t="s">
         <v>6</v>
@@ -877,7 +875,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4">
       <c r="A12" s="6"/>
       <c r="B12" s="7" t="s">
         <v>37</v>
@@ -889,7 +887,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4">
       <c r="A13" s="6"/>
       <c r="B13" s="7" t="s">
         <v>8</v>
@@ -901,7 +899,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4">
       <c r="A14" s="6"/>
       <c r="B14" s="7" t="s">
         <v>10</v>
@@ -913,11 +911,11 @@
         <v>38</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="19" t="s">
+    <row r="17" spans="1:2">
+      <c r="A17" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="B17" s="19"/>
+      <c r="B17" s="22"/>
     </row>
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1"/>
@@ -932,33 +930,33 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="76.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="76.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.5546875" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="15" t="s">
+    <row r="1" spans="1:4" ht="21">
+      <c r="A1" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="15"/>
+      <c r="B1" s="18"/>
       <c r="C1" s="8"/>
       <c r="D1" s="1"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4">
       <c r="B2" s="2"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4">
       <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
@@ -972,17 +970,17 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4">
       <c r="A4" s="5">
         <v>1</v>
       </c>
-      <c r="B4" s="16" t="s">
+      <c r="B4" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="17"/>
-      <c r="D4" s="18"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C4" s="20"/>
+      <c r="D4" s="21"/>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" s="6"/>
       <c r="B5" s="7" t="s">
         <v>9</v>
@@ -994,23 +992,23 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4">
       <c r="A6" s="6"/>
       <c r="B6" s="7"/>
       <c r="C6" s="9"/>
       <c r="D6" s="6"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4">
       <c r="A7" s="5">
         <v>3</v>
       </c>
-      <c r="B7" s="16" t="s">
+      <c r="B7" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="17"/>
-      <c r="D7" s="18"/>
-    </row>
-    <row r="8" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="C7" s="20"/>
+      <c r="D7" s="21"/>
+    </row>
+    <row r="8" spans="1:4" ht="28.8">
       <c r="A8" s="6"/>
       <c r="B8" s="7" t="s">
         <v>6</v>
@@ -1022,7 +1020,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4">
       <c r="A9" s="6"/>
       <c r="B9" s="7" t="s">
         <v>8</v>
@@ -1034,7 +1032,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4">
       <c r="A10" s="6"/>
       <c r="B10" s="7" t="s">
         <v>10</v>
@@ -1046,23 +1044,23 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4">
       <c r="A11" s="6"/>
       <c r="B11" s="7"/>
       <c r="C11" s="9"/>
       <c r="D11" s="6"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4">
       <c r="A12" s="5">
         <v>2</v>
       </c>
-      <c r="B12" s="16" t="s">
+      <c r="B12" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="17"/>
-      <c r="D12" s="18"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C12" s="20"/>
+      <c r="D12" s="21"/>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13" s="6"/>
       <c r="B13" s="7" t="s">
         <v>14</v>
@@ -1074,23 +1072,23 @@
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4">
       <c r="A14" s="6"/>
       <c r="B14" s="7"/>
       <c r="C14" s="9"/>
       <c r="D14" s="6"/>
     </row>
-    <row r="15" spans="1:4" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" ht="29.25" customHeight="1">
       <c r="A15" s="5">
         <v>4</v>
       </c>
-      <c r="B15" s="16" t="s">
+      <c r="B15" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="17"/>
-      <c r="D15" s="18"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C15" s="20"/>
+      <c r="D15" s="21"/>
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16" s="6"/>
       <c r="B16" s="7" t="s">
         <v>15</v>
@@ -1102,7 +1100,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" ht="28.8">
       <c r="A17" s="6"/>
       <c r="B17" s="7" t="s">
         <v>16</v>
@@ -1114,11 +1112,11 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="19" t="s">
+    <row r="20" spans="1:4">
+      <c r="A20" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="B20" s="19"/>
+      <c r="B20" s="22"/>
     </row>
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1"/>
@@ -1135,33 +1133,33 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A25" sqref="A25:B25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="76.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.5703125" style="13" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="76.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.5546875" style="13" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="15" t="s">
+    <row r="1" spans="1:4" ht="21">
+      <c r="A1" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="15"/>
+      <c r="B1" s="18"/>
       <c r="C1" s="12"/>
       <c r="D1" s="1"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4">
       <c r="B2" s="2"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4">
       <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
@@ -1175,17 +1173,17 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4">
       <c r="A4" s="5">
         <v>5</v>
       </c>
-      <c r="B4" s="16" t="s">
+      <c r="B4" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="17"/>
-      <c r="D4" s="18"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C4" s="20"/>
+      <c r="D4" s="21"/>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" s="6"/>
       <c r="B5" s="7" t="s">
         <v>21</v>
@@ -1197,23 +1195,23 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4">
       <c r="A6" s="6"/>
       <c r="B6" s="7"/>
       <c r="C6" s="9"/>
       <c r="D6" s="6"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4">
       <c r="A7" s="5">
         <v>7</v>
       </c>
-      <c r="B7" s="16" t="s">
+      <c r="B7" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="C7" s="17"/>
-      <c r="D7" s="18"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C7" s="20"/>
+      <c r="D7" s="21"/>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" s="6"/>
       <c r="B8" s="7"/>
       <c r="C8" s="9" t="s">
@@ -1221,23 +1219,23 @@
       </c>
       <c r="D8" s="6"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4">
       <c r="A9" s="6"/>
       <c r="B9" s="7"/>
       <c r="C9" s="9"/>
       <c r="D9" s="6"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4">
       <c r="A10" s="5">
         <v>2</v>
       </c>
-      <c r="B10" s="16" t="s">
+      <c r="B10" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="C10" s="17"/>
-      <c r="D10" s="18"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C10" s="20"/>
+      <c r="D10" s="21"/>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11" s="6"/>
       <c r="B11" s="7" t="s">
         <v>41</v>
@@ -1249,23 +1247,23 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4">
       <c r="A12" s="6"/>
       <c r="B12" s="7"/>
       <c r="C12" s="9"/>
       <c r="D12" s="6"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4">
       <c r="A13" s="5">
         <v>6</v>
       </c>
-      <c r="B13" s="16" t="s">
+      <c r="B13" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="C13" s="17"/>
-      <c r="D13" s="18"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C13" s="20"/>
+      <c r="D13" s="21"/>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14" s="6"/>
       <c r="B14" s="7" t="s">
         <v>43</v>
@@ -1277,7 +1275,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4">
       <c r="A15" s="6"/>
       <c r="B15" s="7" t="s">
         <v>44</v>
@@ -1289,7 +1287,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4">
       <c r="A16" s="6"/>
       <c r="B16" s="7" t="s">
         <v>45</v>
@@ -1301,7 +1299,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4">
       <c r="A17" s="6"/>
       <c r="B17" s="7" t="s">
         <v>46</v>
@@ -1313,7 +1311,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4">
       <c r="A18" s="6"/>
       <c r="B18" s="10" t="s">
         <v>47</v>
@@ -1325,23 +1323,23 @@
         <v>18</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4">
       <c r="A19" s="6"/>
       <c r="B19" s="10"/>
       <c r="C19" s="14"/>
       <c r="D19" s="11"/>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4">
       <c r="A20" s="5">
         <v>11</v>
       </c>
-      <c r="B20" s="16" t="s">
+      <c r="B20" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="C20" s="17"/>
-      <c r="D20" s="18"/>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C20" s="20"/>
+      <c r="D20" s="21"/>
+    </row>
+    <row r="21" spans="1:4">
       <c r="A21" s="10"/>
       <c r="B21" s="10" t="s">
         <v>79</v>
@@ -1351,17 +1349,17 @@
       </c>
       <c r="D21" s="10"/>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4">
       <c r="A22" s="10"/>
       <c r="B22" s="10"/>
       <c r="C22" s="14"/>
       <c r="D22" s="10"/>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="19" t="s">
+    <row r="25" spans="1:4">
+      <c r="A25" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="B25" s="19"/>
+      <c r="B25" s="22"/>
     </row>
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1"/>
@@ -1379,33 +1377,33 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="76.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.28515625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="76.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.33203125" style="2" customWidth="1"/>
     <col min="4" max="4" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="15" t="s">
+    <row r="1" spans="1:4" ht="21">
+      <c r="A1" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="15"/>
+      <c r="B1" s="18"/>
       <c r="C1" s="8"/>
       <c r="D1" s="1"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4">
       <c r="B2" s="2"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4">
       <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
@@ -1419,17 +1417,17 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4">
       <c r="A4" s="5">
         <v>7</v>
       </c>
-      <c r="B4" s="16" t="s">
+      <c r="B4" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="C4" s="17"/>
-      <c r="D4" s="18"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C4" s="20"/>
+      <c r="D4" s="21"/>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" s="6"/>
       <c r="B5" s="7" t="s">
         <v>69</v>
@@ -1441,23 +1439,23 @@
         <v>36</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4">
       <c r="A6" s="6"/>
       <c r="B6" s="7"/>
       <c r="C6" s="9"/>
       <c r="D6" s="6"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4">
       <c r="A7" s="5">
         <v>8</v>
       </c>
-      <c r="B7" s="16" t="s">
+      <c r="B7" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="17"/>
-      <c r="D7" s="18"/>
-    </row>
-    <row r="8" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="C7" s="20"/>
+      <c r="D7" s="21"/>
+    </row>
+    <row r="8" spans="1:4" ht="28.8">
       <c r="A8" s="6"/>
       <c r="B8" s="7" t="s">
         <v>58</v>
@@ -1469,7 +1467,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" ht="28.8">
       <c r="A9" s="6"/>
       <c r="B9" s="7" t="s">
         <v>60</v>
@@ -1481,29 +1479,29 @@
         <v>36</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4">
       <c r="A10" s="6"/>
       <c r="B10" s="7"/>
       <c r="C10" s="9"/>
       <c r="D10" s="6"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4">
       <c r="A11" s="6"/>
       <c r="B11" s="7"/>
       <c r="C11" s="9"/>
       <c r="D11" s="6"/>
     </row>
-    <row r="12" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" ht="30" customHeight="1">
       <c r="A12" s="5">
         <v>9</v>
       </c>
-      <c r="B12" s="16" t="s">
+      <c r="B12" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="C12" s="17"/>
-      <c r="D12" s="18"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C12" s="20"/>
+      <c r="D12" s="21"/>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13" s="6"/>
       <c r="B13" s="7" t="s">
         <v>49</v>
@@ -1515,7 +1513,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4">
       <c r="A14" s="6"/>
       <c r="B14" s="7" t="s">
         <v>50</v>
@@ -1527,7 +1525,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4">
       <c r="A15" s="6"/>
       <c r="B15" s="7" t="s">
         <v>51</v>
@@ -1539,7 +1537,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4">
       <c r="A16" s="6"/>
       <c r="B16" s="7" t="s">
         <v>52</v>
@@ -1551,23 +1549,23 @@
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4">
       <c r="A17" s="6"/>
       <c r="B17" s="7"/>
       <c r="C17" s="9"/>
       <c r="D17" s="6"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4">
       <c r="A18" s="5">
         <v>10</v>
       </c>
-      <c r="B18" s="16" t="s">
+      <c r="B18" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="C18" s="17"/>
-      <c r="D18" s="18"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C18" s="20"/>
+      <c r="D18" s="21"/>
+    </row>
+    <row r="19" spans="1:4">
       <c r="A19" s="6"/>
       <c r="B19" s="7" t="s">
         <v>54</v>
@@ -1579,7 +1577,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4">
       <c r="A20" s="6"/>
       <c r="B20" s="7" t="s">
         <v>55</v>
@@ -1591,7 +1589,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4">
       <c r="A21" s="6"/>
       <c r="B21" s="7" t="s">
         <v>56</v>
@@ -1603,7 +1601,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4">
       <c r="A22" s="6"/>
       <c r="B22" s="7" t="s">
         <v>57</v>
@@ -1615,23 +1613,23 @@
         <v>18</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4">
       <c r="A23" s="6"/>
       <c r="B23" s="7"/>
       <c r="C23" s="9"/>
       <c r="D23" s="6"/>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4">
       <c r="A24" s="5">
         <v>11</v>
       </c>
-      <c r="B24" s="16" t="s">
+      <c r="B24" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="C24" s="17"/>
-      <c r="D24" s="18"/>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C24" s="20"/>
+      <c r="D24" s="21"/>
+    </row>
+    <row r="25" spans="1:4">
       <c r="A25" s="6"/>
       <c r="B25" s="7" t="s">
         <v>80</v>
@@ -1641,17 +1639,17 @@
       </c>
       <c r="D25" s="6"/>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4">
       <c r="A26" s="6"/>
       <c r="B26" s="7"/>
       <c r="C26" s="9"/>
       <c r="D26" s="6"/>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="19" t="s">
+    <row r="29" spans="1:4">
+      <c r="A29" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="B29" s="19"/>
+      <c r="B29" s="22"/>
     </row>
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1"/>
@@ -1669,33 +1667,33 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="76.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.28515625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="76.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.33203125" style="2" customWidth="1"/>
     <col min="4" max="4" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="15" t="s">
+    <row r="1" spans="1:4" ht="21">
+      <c r="A1" s="18" t="s">
         <v>66</v>
       </c>
-      <c r="B1" s="15"/>
+      <c r="B1" s="18"/>
       <c r="C1" s="8"/>
       <c r="D1" s="1"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4">
       <c r="B2" s="2"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4">
       <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
@@ -1709,17 +1707,17 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4">
       <c r="A4" s="5">
         <v>7</v>
       </c>
-      <c r="B4" s="16" t="s">
+      <c r="B4" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="C4" s="17"/>
-      <c r="D4" s="18"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C4" s="20"/>
+      <c r="D4" s="21"/>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" s="6"/>
       <c r="B5" s="7" t="s">
         <v>69</v>
@@ -1729,7 +1727,7 @@
       </c>
       <c r="D5" s="6"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4">
       <c r="A6" s="6"/>
       <c r="B6" s="7" t="s">
         <v>70</v>
@@ -1739,7 +1737,7 @@
       </c>
       <c r="D6" s="6"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4">
       <c r="A7" s="6"/>
       <c r="B7" s="7" t="s">
         <v>71</v>
@@ -1749,23 +1747,23 @@
       </c>
       <c r="D7" s="6"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4">
       <c r="A8" s="6"/>
-      <c r="B8" s="20"/>
-      <c r="C8" s="21"/>
-      <c r="D8" s="22"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B8" s="15"/>
+      <c r="C8" s="16"/>
+      <c r="D8" s="17"/>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" s="5">
         <v>8</v>
       </c>
-      <c r="B9" s="16" t="s">
+      <c r="B9" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="C9" s="17"/>
-      <c r="D9" s="18"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C9" s="20"/>
+      <c r="D9" s="21"/>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" s="6"/>
       <c r="B10" s="7" t="s">
         <v>60</v>
@@ -1774,32 +1772,32 @@
         <v>61</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11" s="6"/>
       <c r="B11" s="7"/>
       <c r="C11" s="9"/>
       <c r="D11" s="6"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4">
       <c r="A12" s="6"/>
       <c r="B12" s="7"/>
       <c r="C12" s="9"/>
       <c r="D12" s="6"/>
     </row>
-    <row r="13" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" ht="30" customHeight="1">
       <c r="A13" s="5">
         <v>12</v>
       </c>
-      <c r="B13" s="16" t="s">
+      <c r="B13" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="C13" s="17"/>
-      <c r="D13" s="18"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C13" s="20"/>
+      <c r="D13" s="21"/>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14" s="6"/>
       <c r="B14" s="7" t="s">
         <v>74</v>
@@ -1809,29 +1807,29 @@
       </c>
       <c r="D14" s="6"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4">
       <c r="A15" s="6"/>
       <c r="B15" s="7"/>
       <c r="C15" s="9"/>
       <c r="D15" s="6"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4">
       <c r="A16" s="6"/>
       <c r="B16" s="7"/>
       <c r="C16" s="9"/>
       <c r="D16" s="6"/>
     </row>
-    <row r="17" spans="1:4" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" ht="33.75" customHeight="1">
       <c r="A17" s="5">
         <v>13</v>
       </c>
-      <c r="B17" s="16" t="s">
+      <c r="B17" s="19" t="s">
         <v>75</v>
       </c>
-      <c r="C17" s="17"/>
-      <c r="D17" s="18"/>
-    </row>
-    <row r="18" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="C17" s="20"/>
+      <c r="D17" s="21"/>
+    </row>
+    <row r="18" spans="1:4">
       <c r="A18" s="6"/>
       <c r="B18" s="7" t="s">
         <v>76</v>
@@ -1841,7 +1839,7 @@
       </c>
       <c r="D18" s="6"/>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4">
       <c r="A19" s="6"/>
       <c r="B19" s="7" t="s">
         <v>77</v>
@@ -1851,7 +1849,7 @@
       </c>
       <c r="D19" s="6"/>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4">
       <c r="A20" s="6"/>
       <c r="B20" s="7" t="s">
         <v>78</v>
@@ -1861,29 +1859,29 @@
       </c>
       <c r="D20" s="6"/>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4">
       <c r="A21" s="6"/>
       <c r="B21" s="7"/>
       <c r="C21" s="9"/>
       <c r="D21" s="6"/>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4">
       <c r="A22" s="6"/>
       <c r="B22" s="7"/>
       <c r="C22" s="9"/>
       <c r="D22" s="6"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4">
       <c r="A23" s="5">
         <v>11</v>
       </c>
-      <c r="B23" s="16" t="s">
+      <c r="B23" s="19" t="s">
         <v>67</v>
       </c>
-      <c r="C23" s="17"/>
-      <c r="D23" s="18"/>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C23" s="20"/>
+      <c r="D23" s="21"/>
+    </row>
+    <row r="24" spans="1:4">
       <c r="A24" s="6"/>
       <c r="B24" s="7" t="s">
         <v>72</v>
@@ -1893,7 +1891,7 @@
       </c>
       <c r="D24" s="6"/>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4">
       <c r="A25" s="6"/>
       <c r="B25" s="7" t="s">
         <v>73</v>
@@ -1903,11 +1901,11 @@
       </c>
       <c r="D25" s="6"/>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="19" t="s">
+    <row r="28" spans="1:4">
+      <c r="A28" s="22" t="s">
         <v>64</v>
       </c>
-      <c r="B28" s="19"/>
+      <c r="B28" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="7">

--- a/ScrumDoku/Sprint_Backlog_1.xlsx
+++ b/ScrumDoku/Sprint_Backlog_1.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="0" sheetId="6" r:id="rId1"/>
@@ -12,13 +12,14 @@
     <sheet name="2" sheetId="3" r:id="rId3"/>
     <sheet name="3" sheetId="5" r:id="rId4"/>
     <sheet name="4" sheetId="7" r:id="rId5"/>
+    <sheet name="5" sheetId="8" r:id="rId6"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="89">
   <si>
     <t>StoryID</t>
   </si>
@@ -110,12 +111,6 @@
     <t>Der Benutzer kann die verschiedenen Funktionen in einer Toolbar auslösen.</t>
   </si>
   <si>
-    <t>Remo, Alex</t>
-  </si>
-  <si>
-    <t>Remo, Alex, Eyesil</t>
-  </si>
-  <si>
     <t>Bimaru: Sprint Backlog 0</t>
   </si>
   <si>
@@ -203,28 +198,16 @@
     <t>Nach Anzeigen der Lösung toggeln verhindern</t>
   </si>
   <si>
-    <t xml:space="preserve">Alex </t>
-  </si>
-  <si>
     <t>Der Spieler kann das Spiel jederzeit neu starten / resetten.</t>
   </si>
   <si>
-    <t>Eyesil</t>
-  </si>
-  <si>
     <t>Scrum Master: Yesil Egemen</t>
   </si>
   <si>
-    <t>Aamato</t>
-  </si>
-  <si>
     <t>Bimaru: Sprint Backlog 4</t>
   </si>
   <si>
     <t>Help-Button öffnet  Bedienungsanleitung</t>
-  </si>
-  <si>
-    <t>Rkoller</t>
   </si>
   <si>
     <t>Dropdown Menü</t>
@@ -262,13 +245,55 @@
   </si>
   <si>
     <t>die implementierten Funktionen auslösen, testen</t>
+  </si>
+  <si>
+    <t>Bimaru: Sprint Backlog 5</t>
+  </si>
+  <si>
+    <t>Spiel laden, anhand der ausgewählten Datei</t>
+  </si>
+  <si>
+    <t>Der Spieler kann seine letzte Änderung rückgangig machen bzw. wiederherstellen.</t>
+  </si>
+  <si>
+    <t>Automatische Erkennung, dass das Spiel gewonnen wurde</t>
+  </si>
+  <si>
+    <t>Dokumentation</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>alle</t>
+  </si>
+  <si>
+    <t>JavaDoc ergänzen (min. alle Klassen und public Methoden)</t>
+  </si>
+  <si>
+    <t>Mehrere Zeitanzeigen verhindern</t>
+  </si>
+  <si>
+    <t>Scrum Master: Christoph Solis</t>
+  </si>
+  <si>
+    <t>rkoller</t>
+  </si>
+  <si>
+    <t xml:space="preserve">asmelt </t>
+  </si>
+  <si>
+    <t>rkoller, eyesil</t>
+  </si>
+  <si>
+    <t>asmelt, rkoller</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -466,7 +491,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Larissa-Design">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Larissa">
   <a:themeElements>
     <a:clrScheme name="Larissa">
       <a:dk1>
@@ -508,7 +533,7 @@
     </a:clrScheme>
     <a:fontScheme name="Larissa">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -540,9 +565,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -574,6 +600,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Larissa">
@@ -749,33 +776,33 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="76.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="76.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="21">
+    <row r="1" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A1" s="18" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B1" s="18"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B2" s="2"/>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
@@ -789,7 +816,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="30" customHeight="1">
+    <row r="4" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <v>1</v>
       </c>
@@ -799,10 +826,10 @@
       <c r="C4" s="20"/>
       <c r="D4" s="21"/>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="6"/>
       <c r="B5" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C5" s="6" t="s">
         <v>7</v>
@@ -811,10 +838,10 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="6"/>
       <c r="B6" s="7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C6" s="6" t="s">
         <v>7</v>
@@ -823,10 +850,10 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="6"/>
       <c r="B7" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C7" s="6" t="s">
         <v>7</v>
@@ -835,7 +862,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="6"/>
       <c r="B8" s="7" t="s">
         <v>9</v>
@@ -844,16 +871,16 @@
         <v>7</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="6"/>
       <c r="B9" s="7"/>
       <c r="C9" s="6"/>
       <c r="D9" s="6"/>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
         <v>3</v>
       </c>
@@ -863,7 +890,7 @@
       <c r="C10" s="20"/>
       <c r="D10" s="21"/>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="6"/>
       <c r="B11" s="7" t="s">
         <v>6</v>
@@ -872,13 +899,13 @@
         <v>7</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="6"/>
       <c r="B12" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C12" s="6" t="s">
         <v>7</v>
@@ -887,7 +914,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="6"/>
       <c r="B13" s="7" t="s">
         <v>8</v>
@@ -896,10 +923,10 @@
         <v>7</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="6"/>
       <c r="B14" s="7" t="s">
         <v>10</v>
@@ -908,12 +935,12 @@
         <v>7</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="22" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B17" s="22"/>
     </row>
@@ -930,22 +957,22 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="76.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="76.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.5703125" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="21">
+    <row r="1" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A1" s="18" t="s">
         <v>11</v>
       </c>
@@ -953,10 +980,10 @@
       <c r="C1" s="8"/>
       <c r="D1" s="1"/>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B2" s="2"/>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
@@ -970,7 +997,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <v>1</v>
       </c>
@@ -980,7 +1007,7 @@
       <c r="C4" s="20"/>
       <c r="D4" s="21"/>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="6"/>
       <c r="B5" s="7" t="s">
         <v>9</v>
@@ -992,13 +1019,13 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="6"/>
       <c r="B6" s="7"/>
       <c r="C6" s="9"/>
       <c r="D6" s="6"/>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <v>3</v>
       </c>
@@ -1008,7 +1035,7 @@
       <c r="C7" s="20"/>
       <c r="D7" s="21"/>
     </row>
-    <row r="8" spans="1:4" ht="28.8">
+    <row r="8" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="6"/>
       <c r="B8" s="7" t="s">
         <v>6</v>
@@ -1020,7 +1047,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="6"/>
       <c r="B9" s="7" t="s">
         <v>8</v>
@@ -1032,7 +1059,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="6"/>
       <c r="B10" s="7" t="s">
         <v>10</v>
@@ -1044,13 +1071,13 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="6"/>
       <c r="B11" s="7"/>
       <c r="C11" s="9"/>
       <c r="D11" s="6"/>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
         <v>2</v>
       </c>
@@ -1060,7 +1087,7 @@
       <c r="C12" s="20"/>
       <c r="D12" s="21"/>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="6"/>
       <c r="B13" s="7" t="s">
         <v>14</v>
@@ -1072,13 +1099,13 @@
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="6"/>
       <c r="B14" s="7"/>
       <c r="C14" s="9"/>
       <c r="D14" s="6"/>
     </row>
-    <row r="15" spans="1:4" ht="29.25" customHeight="1">
+    <row r="15" spans="1:4" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="5">
         <v>4</v>
       </c>
@@ -1088,7 +1115,7 @@
       <c r="C15" s="20"/>
       <c r="D15" s="21"/>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="6"/>
       <c r="B16" s="7" t="s">
         <v>15</v>
@@ -1100,7 +1127,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="28.8">
+    <row r="17" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="6"/>
       <c r="B17" s="7" t="s">
         <v>16</v>
@@ -1112,9 +1139,9 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="22" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B20" s="22"/>
     </row>
@@ -1133,22 +1160,22 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A25" sqref="A25:B25"/>
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="76.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.5546875" style="13" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="76.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.5703125" style="13" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="21">
+    <row r="1" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A1" s="18" t="s">
         <v>20</v>
       </c>
@@ -1156,10 +1183,10 @@
       <c r="C1" s="12"/>
       <c r="D1" s="1"/>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B2" s="2"/>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
@@ -1173,7 +1200,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <v>5</v>
       </c>
@@ -1183,7 +1210,7 @@
       <c r="C4" s="20"/>
       <c r="D4" s="21"/>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="6"/>
       <c r="B5" s="7" t="s">
         <v>21</v>
@@ -1195,13 +1222,13 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="6"/>
       <c r="B6" s="7"/>
       <c r="C6" s="9"/>
       <c r="D6" s="6"/>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <v>7</v>
       </c>
@@ -1211,21 +1238,21 @@
       <c r="C7" s="20"/>
       <c r="D7" s="21"/>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="6"/>
       <c r="B8" s="7"/>
       <c r="C8" s="9" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D8" s="6"/>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="6"/>
       <c r="B9" s="7"/>
       <c r="C9" s="9"/>
       <c r="D9" s="6"/>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
         <v>2</v>
       </c>
@@ -1235,10 +1262,10 @@
       <c r="C10" s="20"/>
       <c r="D10" s="21"/>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="6"/>
       <c r="B11" s="7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C11" s="9" t="s">
         <v>7</v>
@@ -1247,13 +1274,13 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="6"/>
       <c r="B12" s="7"/>
       <c r="C12" s="9"/>
       <c r="D12" s="6"/>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
         <v>6</v>
       </c>
@@ -1263,10 +1290,10 @@
       <c r="C13" s="20"/>
       <c r="D13" s="21"/>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="6"/>
       <c r="B14" s="7" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C14" s="9" t="s">
         <v>7</v>
@@ -1275,10 +1302,10 @@
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="6"/>
       <c r="B15" s="7" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C15" s="9" t="s">
         <v>7</v>
@@ -1287,10 +1314,10 @@
         <v>18</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="6"/>
       <c r="B16" s="7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C16" s="9" t="s">
         <v>7</v>
@@ -1299,10 +1326,10 @@
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="6"/>
       <c r="B17" s="7" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C17" s="9" t="s">
         <v>7</v>
@@ -1311,10 +1338,10 @@
         <v>18</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="6"/>
       <c r="B18" s="10" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C18" s="14" t="s">
         <v>7</v>
@@ -1323,13 +1350,13 @@
         <v>18</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="6"/>
       <c r="B19" s="10"/>
       <c r="C19" s="14"/>
       <c r="D19" s="11"/>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="5">
         <v>11</v>
       </c>
@@ -1339,30 +1366,31 @@
       <c r="C20" s="20"/>
       <c r="D20" s="21"/>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="10"/>
       <c r="B21" s="10" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="C21" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="D21" s="10"/>
-    </row>
-    <row r="22" spans="1:4">
+        <v>46</v>
+      </c>
+      <c r="D21" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="10"/>
       <c r="B22" s="10"/>
       <c r="C22" s="14"/>
       <c r="D22" s="10"/>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="22" t="s">
         <v>24</v>
       </c>
       <c r="B25" s="22"/>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="7">
     <mergeCell ref="A25:B25"/>
     <mergeCell ref="A1:B1"/>
@@ -1377,33 +1405,33 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D29"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="76.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.33203125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="76.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.28515625" style="2" customWidth="1"/>
     <col min="4" max="4" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="21">
+    <row r="1" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A1" s="18" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B1" s="18"/>
       <c r="C1" s="8"/>
       <c r="D1" s="1"/>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B2" s="2"/>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
@@ -1417,7 +1445,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <v>7</v>
       </c>
@@ -1427,25 +1455,25 @@
       <c r="C4" s="20"/>
       <c r="D4" s="21"/>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="6"/>
       <c r="B5" s="7" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="6"/>
       <c r="B6" s="7"/>
       <c r="C6" s="9"/>
       <c r="D6" s="6"/>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <v>8</v>
       </c>
@@ -1455,56 +1483,62 @@
       <c r="C7" s="20"/>
       <c r="D7" s="21"/>
     </row>
-    <row r="8" spans="1:4" ht="28.8">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="6"/>
       <c r="B8" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>31</v>
+        <v>87</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="28.8">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="6"/>
       <c r="B9" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="6"/>
       <c r="B10" s="7"/>
       <c r="C10" s="9"/>
       <c r="D10" s="6"/>
     </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="6"/>
-      <c r="B11" s="7"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="6"/>
-    </row>
-    <row r="12" spans="1:4" ht="30" customHeight="1">
-      <c r="A12" s="5">
+    <row r="11" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="5">
         <v>9</v>
       </c>
-      <c r="B12" s="19" t="s">
+      <c r="B11" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="C12" s="20"/>
-      <c r="D12" s="21"/>
-    </row>
-    <row r="13" spans="1:4">
+      <c r="C11" s="20"/>
+      <c r="D11" s="21"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="6"/>
+      <c r="B12" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="6"/>
       <c r="B13" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C13" s="9" t="s">
         <v>7</v>
@@ -1513,10 +1547,10 @@
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="6"/>
       <c r="B14" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C14" s="9" t="s">
         <v>7</v>
@@ -1525,50 +1559,50 @@
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="6"/>
       <c r="B15" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="6"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="6"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="5">
+        <v>10</v>
+      </c>
+      <c r="B17" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="C15" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" s="6"/>
-      <c r="B16" s="7" t="s">
+      <c r="C17" s="20"/>
+      <c r="D17" s="21"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="6"/>
+      <c r="B18" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="C16" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="6"/>
-      <c r="B17" s="7"/>
-      <c r="C17" s="9"/>
-      <c r="D17" s="6"/>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" s="5">
-        <v>10</v>
-      </c>
-      <c r="B18" s="19" t="s">
-        <v>53</v>
-      </c>
-      <c r="C18" s="20"/>
-      <c r="D18" s="21"/>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="C18" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="6"/>
       <c r="B19" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C19" s="9" t="s">
         <v>7</v>
@@ -1577,10 +1611,10 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="6"/>
       <c r="B20" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C20" s="9" t="s">
         <v>7</v>
@@ -1589,10 +1623,10 @@
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="6"/>
       <c r="B21" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C21" s="9" t="s">
         <v>7</v>
@@ -1601,99 +1635,88 @@
         <v>18</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="6"/>
-      <c r="B22" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="C22" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="D22" s="6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="A23" s="6"/>
-      <c r="B23" s="7"/>
-      <c r="C23" s="9"/>
-      <c r="D23" s="6"/>
-    </row>
-    <row r="24" spans="1:4">
-      <c r="A24" s="5">
+      <c r="B22" s="7"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="6"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="5">
         <v>11</v>
       </c>
-      <c r="B24" s="19" t="s">
+      <c r="B23" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="C24" s="20"/>
-      <c r="D24" s="21"/>
-    </row>
-    <row r="25" spans="1:4">
+      <c r="C23" s="20"/>
+      <c r="D23" s="21"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="6"/>
+      <c r="B24" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="6"/>
-      <c r="B25" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="C25" s="9" t="s">
-        <v>30</v>
-      </c>
+      <c r="B25" s="7"/>
+      <c r="C25" s="9"/>
       <c r="D25" s="6"/>
     </row>
-    <row r="26" spans="1:4">
-      <c r="A26" s="6"/>
-      <c r="B26" s="7"/>
-      <c r="C26" s="9"/>
-      <c r="D26" s="6"/>
-    </row>
-    <row r="29" spans="1:4">
-      <c r="A29" s="22" t="s">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="B29" s="22"/>
+      <c r="B28" s="22"/>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="7">
-    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="A28:B28"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="B4:D4"/>
     <mergeCell ref="B7:D7"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="B17:D17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D28"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="76.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.33203125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="76.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.28515625" style="2" customWidth="1"/>
     <col min="4" max="4" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="21">
+    <row r="1" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A1" s="18" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="B1" s="18"/>
       <c r="C1" s="8"/>
       <c r="D1" s="1"/>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B2" s="2"/>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
@@ -1707,7 +1730,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <v>7</v>
       </c>
@@ -1717,43 +1740,49 @@
       <c r="C4" s="20"/>
       <c r="D4" s="21"/>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="6"/>
       <c r="B5" s="7" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="D5" s="6"/>
-    </row>
-    <row r="6" spans="1:4">
+        <v>38</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="6"/>
       <c r="B6" s="7" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="D6" s="6"/>
-    </row>
-    <row r="7" spans="1:4">
+        <v>38</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="6"/>
       <c r="B7" s="7" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="D7" s="6"/>
-    </row>
-    <row r="8" spans="1:4">
+        <v>38</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="6"/>
       <c r="B8" s="15"/>
       <c r="C8" s="16"/>
       <c r="D8" s="17"/>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
         <v>8</v>
       </c>
@@ -1763,159 +1792,399 @@
       <c r="C9" s="20"/>
       <c r="D9" s="21"/>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="6"/>
       <c r="B10" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>61</v>
+        <v>86</v>
       </c>
       <c r="D10" s="6" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="6"/>
       <c r="B11" s="7"/>
       <c r="C11" s="9"/>
       <c r="D11" s="6"/>
     </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="6"/>
-      <c r="B12" s="7"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="6"/>
-    </row>
-    <row r="13" spans="1:4" ht="30" customHeight="1">
-      <c r="A13" s="5">
+    <row r="12" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="5">
         <v>12</v>
       </c>
-      <c r="B13" s="19" t="s">
+      <c r="B12" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="C12" s="20"/>
+      <c r="D12" s="21"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="6"/>
+      <c r="B13" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="6"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="6"/>
+    </row>
+    <row r="15" spans="1:4" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="5">
+        <v>13</v>
+      </c>
+      <c r="B15" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="C15" s="20"/>
+      <c r="D15" s="21"/>
+    </row>
+    <row r="16" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A16" s="6"/>
+      <c r="B16" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="6"/>
+      <c r="B17" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="6"/>
+      <c r="B18" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="6"/>
+      <c r="B19" s="7"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="6"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="5">
+        <v>11</v>
+      </c>
+      <c r="B20" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="C13" s="20"/>
-      <c r="D13" s="21"/>
-    </row>
-    <row r="14" spans="1:4">
+      <c r="C20" s="20"/>
+      <c r="D20" s="21"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="6"/>
+      <c r="B21" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="6"/>
+      <c r="B22" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="B25" s="22"/>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="B20:D20"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D27"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="76.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.28515625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="14" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+      <c r="A1" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="B1" s="18"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="1"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B2" s="2"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="5">
+        <v>7</v>
+      </c>
+      <c r="B4" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="20"/>
+      <c r="D4" s="21"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="6"/>
+      <c r="B5" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="D5" s="6"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="6"/>
+      <c r="B6" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="D6" s="6"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="6"/>
+      <c r="B7" s="15"/>
+      <c r="C7" s="16"/>
+      <c r="D7" s="17"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="5">
+        <v>14</v>
+      </c>
+      <c r="B8" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="C8" s="20"/>
+      <c r="D8" s="21"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="6"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" s="6"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="6"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="6"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="6"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="6"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="5">
+        <v>16</v>
+      </c>
+      <c r="B12" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="C12" s="20"/>
+      <c r="D12" s="21"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="6"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D13" s="6"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="6"/>
-      <c r="B14" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="C14" s="9" t="s">
-        <v>63</v>
-      </c>
+      <c r="B14" s="7"/>
+      <c r="C14" s="9"/>
       <c r="D14" s="6"/>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="6"/>
       <c r="B15" s="7"/>
       <c r="C15" s="9"/>
       <c r="D15" s="6"/>
     </row>
-    <row r="16" spans="1:4">
-      <c r="A16" s="6"/>
-      <c r="B16" s="7"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="6"/>
-    </row>
-    <row r="17" spans="1:4" ht="33.75" customHeight="1">
-      <c r="A17" s="5">
+    <row r="16" spans="1:4" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="5">
         <v>13</v>
       </c>
-      <c r="B17" s="19" t="s">
-        <v>75</v>
-      </c>
-      <c r="C17" s="20"/>
-      <c r="D17" s="21"/>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="B16" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="C16" s="20"/>
+      <c r="D16" s="21"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="6"/>
+      <c r="B17" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D17" s="6"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="6"/>
-      <c r="B18" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="C18" s="9" t="s">
-        <v>65</v>
-      </c>
+      <c r="B18" s="7"/>
+      <c r="C18" s="9"/>
       <c r="D18" s="6"/>
     </row>
-    <row r="19" spans="1:4">
-      <c r="A19" s="6"/>
-      <c r="B19" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="C19" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="D19" s="6"/>
-    </row>
-    <row r="20" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="5">
+        <v>11</v>
+      </c>
+      <c r="B19" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="C19" s="20"/>
+      <c r="D19" s="21"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="6"/>
       <c r="B20" s="7" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>65</v>
+        <v>46</v>
       </c>
       <c r="D20" s="6"/>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="6"/>
-      <c r="B21" s="7"/>
-      <c r="C21" s="9"/>
+      <c r="B21" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>85</v>
+      </c>
       <c r="D21" s="6"/>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="6"/>
       <c r="B22" s="7"/>
       <c r="C22" s="9"/>
       <c r="D22" s="6"/>
     </row>
-    <row r="23" spans="1:4">
-      <c r="A23" s="5">
-        <v>11</v>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="5" t="s">
+        <v>80</v>
       </c>
       <c r="B23" s="19" t="s">
-        <v>67</v>
+        <v>79</v>
       </c>
       <c r="C23" s="20"/>
       <c r="D23" s="21"/>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="6"/>
       <c r="B24" s="7" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>68</v>
+        <v>81</v>
       </c>
       <c r="D24" s="6"/>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="6"/>
-      <c r="B25" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="C25" s="9" t="s">
-        <v>68</v>
-      </c>
+      <c r="B25" s="7"/>
+      <c r="C25" s="9"/>
       <c r="D25" s="6"/>
     </row>
-    <row r="28" spans="1:4">
-      <c r="A28" s="22" t="s">
-        <v>64</v>
-      </c>
-      <c r="B28" s="22"/>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="22" t="s">
+        <v>84</v>
+      </c>
+      <c r="B27" s="22"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="A28:B28"/>
+  <mergeCells count="8">
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="A27:B27"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="B4:D4"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="B19:D19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/ScrumDoku/Sprint_Backlog_1.xlsx
+++ b/ScrumDoku/Sprint_Backlog_1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="5"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="0" sheetId="6" r:id="rId1"/>
@@ -13,13 +13,14 @@
     <sheet name="3" sheetId="5" r:id="rId4"/>
     <sheet name="4" sheetId="7" r:id="rId5"/>
     <sheet name="5" sheetId="8" r:id="rId6"/>
+    <sheet name="6" sheetId="9" r:id="rId7"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="93">
   <si>
     <t>StoryID</t>
   </si>
@@ -287,6 +288,18 @@
   </si>
   <si>
     <t>asmelt, rkoller</t>
+  </si>
+  <si>
+    <t>Bimaru: Sprint Backlog 6</t>
+  </si>
+  <si>
+    <t>Anleitung verbessern</t>
+  </si>
+  <si>
+    <t>csolis, eyesil</t>
+  </si>
+  <si>
+    <t>Scrum Master: Egemen Yesil</t>
   </si>
 </sst>
 </file>
@@ -1694,7 +1707,7 @@
   <dimension ref="A1:D25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1948,8 +1961,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2003,7 +2016,9 @@
       <c r="C5" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="D5" s="6"/>
+      <c r="D5" s="6" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="6"/>
@@ -2013,7 +2028,9 @@
       <c r="C6" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="D6" s="6"/>
+      <c r="D6" s="6" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="6"/>
@@ -2099,7 +2116,9 @@
       <c r="C17" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="D17" s="6"/>
+      <c r="D17" s="6" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="6"/>
@@ -2125,7 +2144,9 @@
       <c r="C20" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="D20" s="6"/>
+      <c r="D20" s="6" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="6"/>
@@ -2135,7 +2156,9 @@
       <c r="C21" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="D21" s="6"/>
+      <c r="D21" s="6" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="6"/>
@@ -2161,7 +2184,9 @@
       <c r="C24" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="D24" s="6"/>
+      <c r="D24" s="6" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="6"/>
@@ -2188,4 +2213,151 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="76.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.28515625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="14" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+      <c r="A1" s="18" t="s">
+        <v>89</v>
+      </c>
+      <c r="B1" s="18"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="1"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B2" s="2"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="5">
+        <v>7</v>
+      </c>
+      <c r="B4" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="20"/>
+      <c r="D4" s="21"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="6"/>
+      <c r="B5" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="D5" s="6"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="6"/>
+      <c r="B6" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="D6" s="6"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="6"/>
+      <c r="B7" s="15"/>
+      <c r="C7" s="16"/>
+      <c r="D7" s="17"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="5">
+        <v>11</v>
+      </c>
+      <c r="B8" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="C8" s="20"/>
+      <c r="D8" s="21"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="6"/>
+      <c r="B9" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="D9" s="6"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="6"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="6"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="B11" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="C11" s="20"/>
+      <c r="D11" s="21"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="6"/>
+      <c r="B12" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="D12" s="6"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="6"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="6"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="22" t="s">
+        <v>92</v>
+      </c>
+      <c r="B15" s="22"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="B8:D8"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/ScrumDoku/Sprint_Backlog_1.xlsx
+++ b/ScrumDoku/Sprint_Backlog_1.xlsx
@@ -15,12 +15,12 @@
     <sheet name="5" sheetId="8" r:id="rId6"/>
     <sheet name="6" sheetId="9" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="125725" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="95">
   <si>
     <t>StoryID</t>
   </si>
@@ -300,6 +300,12 @@
   </si>
   <si>
     <t>Scrum Master: Egemen Yesil</t>
+  </si>
+  <si>
+    <t>altes Fenster bei Spiellevelwechsel schliessen</t>
+  </si>
+  <si>
+    <t>Spielname Spiellevel anzeigen</t>
   </si>
 </sst>
 </file>
@@ -504,9 +510,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Larissa">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Larissa">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -544,7 +550,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Larissa">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -616,7 +622,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Larissa">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1706,7 +1712,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
@@ -2217,10 +2223,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2274,7 +2280,9 @@
       <c r="C5" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="D5" s="6"/>
+      <c r="D5" s="6" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="6"/>
@@ -2284,79 +2292,95 @@
       <c r="C6" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="D6" s="6"/>
+      <c r="D6" s="6" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="6"/>
-      <c r="B7" s="15"/>
-      <c r="C7" s="16"/>
+      <c r="B7" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="C7" s="16" t="s">
+        <v>38</v>
+      </c>
       <c r="D7" s="17"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="5">
+      <c r="A8" s="6"/>
+      <c r="B8" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="C8" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="D8" s="17"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="5">
         <v>11</v>
       </c>
-      <c r="B8" s="19" t="s">
+      <c r="B9" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="C8" s="20"/>
-      <c r="D8" s="21"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="6"/>
-      <c r="B9" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="C9" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="D9" s="6"/>
+      <c r="C9" s="20"/>
+      <c r="D9" s="21"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="6"/>
-      <c r="B10" s="7"/>
-      <c r="C10" s="9"/>
+      <c r="B10" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>85</v>
+      </c>
       <c r="D10" s="6"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="5" t="s">
+      <c r="A11" s="6"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="6"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="B11" s="19" t="s">
+      <c r="B12" s="19" t="s">
         <v>79</v>
       </c>
-      <c r="C11" s="20"/>
-      <c r="D11" s="21"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="6"/>
-      <c r="B12" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="C12" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="D12" s="6"/>
+      <c r="C12" s="20"/>
+      <c r="D12" s="21"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="6"/>
-      <c r="B13" s="7"/>
-      <c r="C13" s="9"/>
+      <c r="B13" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>81</v>
+      </c>
       <c r="D13" s="6"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="22" t="s">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="6"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="6"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="22" t="s">
         <v>92</v>
       </c>
-      <c r="B15" s="22"/>
+      <c r="B16" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="A16:B16"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="B4:D4"/>
-    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="B9:D9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
